--- a/continuous stations.xlsx
+++ b/continuous stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SMTWaterQuality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{72A71DD6-4F30-4CBC-B54E-21B51AEDE22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD8A6A4-9C51-4744-BD1A-4817F424FD21}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{72A71DD6-4F30-4CBC-B54E-21B51AEDE22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65ECA526-2A52-4A17-BE26-0AF894479B22}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{E43C89DB-75C2-428F-88E0-51B77BDDABCF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>MDM</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>FAL</t>
-  </si>
-  <si>
     <t>HOL</t>
   </si>
   <si>
@@ -66,16 +63,31 @@
     <t>OSJ</t>
   </si>
   <si>
-    <t>SJR</t>
-  </si>
-  <si>
-    <t>MSD</t>
-  </si>
-  <si>
     <t>OBI</t>
   </si>
   <si>
     <t>OH4</t>
+  </si>
+  <si>
+    <t>SJJ</t>
+  </si>
+  <si>
+    <t>WCI</t>
+  </si>
+  <si>
+    <t>RRI</t>
+  </si>
+  <si>
+    <t>TRN</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>TWI</t>
   </si>
 </sst>
 </file>
@@ -107,12 +119,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -137,6 +155,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA7C040-8D1D-48F7-B6B0-CC353C7A569F}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,18 +493,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>38.05547</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-121.667</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
+        <v>38.052</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-121.68899999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>38.015819999999998</v>
@@ -494,7 +515,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>38.003079999999997</v>
@@ -505,7 +526,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>38.027119999999996</v>
@@ -516,7 +537,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>38.071249999999999</v>
@@ -549,59 +570,91 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>37.678899999999999</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-121.265</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>37.831600000000002</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-121.554</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
-        <v>37.786000000000001</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-121.306</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>37.969369999999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-121.57222</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>37.969369999999998</v>
+        <v>37.891109999999998</v>
       </c>
       <c r="C11" s="4">
-        <v>-121.57222</v>
+        <v>-121.56917</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
-        <v>37.891109999999998</v>
-      </c>
-      <c r="C12" s="4">
-        <v>-121.56917</v>
+      <c r="B12" s="5">
+        <v>37.963000000000001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-121.36499999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5">
+        <v>37.992800000000003</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-121.4542</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>38.066000000000003</v>
+      </c>
+      <c r="C14" s="5">
+        <v>-121.562</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>38.096400000000003</v>
+      </c>
+      <c r="C15" s="5">
+        <v>-121.4961</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>38.096899999999998</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-121.6691</v>
+      </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
@@ -632,9 +685,6 @@
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
